--- a/Code/Results/Cases/Case_5_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_200/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9870534475928873</v>
+        <v>1.020574846168834</v>
       </c>
       <c r="D2">
-        <v>1.007509501796473</v>
+        <v>1.026259465027548</v>
       </c>
       <c r="E2">
-        <v>0.9952430141355155</v>
+        <v>1.02155833181374</v>
       </c>
       <c r="F2">
-        <v>0.9956659336786875</v>
+        <v>1.031506699814445</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037700427994477</v>
+        <v>1.029430903032845</v>
       </c>
       <c r="J2">
-        <v>1.009628405652922</v>
+        <v>1.025771184298331</v>
       </c>
       <c r="K2">
-        <v>1.018865199394401</v>
+        <v>1.029082633784605</v>
       </c>
       <c r="L2">
-        <v>1.006769021582456</v>
+        <v>1.024395307221931</v>
       </c>
       <c r="M2">
-        <v>1.007185980999234</v>
+        <v>1.034314619661036</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.991751045712152</v>
+        <v>1.021560697842816</v>
       </c>
       <c r="D3">
-        <v>1.010897377191445</v>
+        <v>1.026984683481957</v>
       </c>
       <c r="E3">
-        <v>0.9989936078012502</v>
+        <v>1.02239584836003</v>
       </c>
       <c r="F3">
-        <v>1.001057260279524</v>
+        <v>1.03270218394147</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038819207003932</v>
+        <v>1.029600306709796</v>
       </c>
       <c r="J3">
-        <v>1.012469139754825</v>
+        <v>1.026394092810482</v>
       </c>
       <c r="K3">
-        <v>1.02139269725109</v>
+        <v>1.029615551789267</v>
       </c>
       <c r="L3">
-        <v>1.009639381819827</v>
+        <v>1.025039217348184</v>
       </c>
       <c r="M3">
-        <v>1.011676631113792</v>
+        <v>1.035317645065252</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9947258126853632</v>
+        <v>1.022198891291063</v>
       </c>
       <c r="D4">
-        <v>1.013044632659778</v>
+        <v>1.027453956667277</v>
       </c>
       <c r="E4">
-        <v>1.001375023561106</v>
+        <v>1.022938399991488</v>
       </c>
       <c r="F4">
-        <v>1.004472019211938</v>
+        <v>1.03347615548905</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039516555722225</v>
+        <v>1.029708574408544</v>
       </c>
       <c r="J4">
-        <v>1.014265401746384</v>
+        <v>1.026796870787447</v>
       </c>
       <c r="K4">
-        <v>1.022988129088016</v>
+        <v>1.029959727298783</v>
       </c>
       <c r="L4">
-        <v>1.01145688154117</v>
+        <v>1.02545585119069</v>
       </c>
       <c r="M4">
-        <v>1.014516768891804</v>
+        <v>1.035966519531227</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9959614574998026</v>
+        <v>1.022467254880221</v>
       </c>
       <c r="D5">
-        <v>1.013936935065404</v>
+        <v>1.027651240124347</v>
       </c>
       <c r="E5">
-        <v>1.002365677054773</v>
+        <v>1.02316663682961</v>
       </c>
       <c r="F5">
-        <v>1.005890626982511</v>
+        <v>1.033801632493445</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0398035073962</v>
+        <v>1.029753767138342</v>
       </c>
       <c r="J5">
-        <v>1.015010856540597</v>
+        <v>1.026966129773703</v>
       </c>
       <c r="K5">
-        <v>1.023649556898411</v>
+        <v>1.030104260478777</v>
       </c>
       <c r="L5">
-        <v>1.012211748301561</v>
+        <v>1.025630998866819</v>
       </c>
       <c r="M5">
-        <v>1.015695643680804</v>
+        <v>1.036239270636496</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9961680677054667</v>
+        <v>1.022512318230925</v>
       </c>
       <c r="D6">
-        <v>1.014086156367648</v>
+        <v>1.027684364915302</v>
       </c>
       <c r="E6">
-        <v>1.002531407793576</v>
+        <v>1.023204967460065</v>
       </c>
       <c r="F6">
-        <v>1.006127842978293</v>
+        <v>1.033856287353315</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039851327637189</v>
+        <v>1.029761336245072</v>
       </c>
       <c r="J6">
-        <v>1.015135462588313</v>
+        <v>1.026994545047994</v>
       </c>
       <c r="K6">
-        <v>1.023760076840829</v>
+        <v>1.030128518939313</v>
       </c>
       <c r="L6">
-        <v>1.012337962704396</v>
+        <v>1.025660406609689</v>
       </c>
       <c r="M6">
-        <v>1.015892711864622</v>
+        <v>1.036285064658478</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9947423814083258</v>
+        <v>1.022202476915362</v>
       </c>
       <c r="D7">
-        <v>1.013056596075133</v>
+        <v>1.027456592775766</v>
       </c>
       <c r="E7">
-        <v>1.001388301450338</v>
+        <v>1.022941449122333</v>
       </c>
       <c r="F7">
-        <v>1.004491040438207</v>
+        <v>1.033480504137764</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039520414208981</v>
+        <v>1.02970917954565</v>
       </c>
       <c r="J7">
-        <v>1.014275400211249</v>
+        <v>1.026799132705604</v>
       </c>
       <c r="K7">
-        <v>1.022997003254397</v>
+        <v>1.029961659180674</v>
       </c>
       <c r="L7">
-        <v>1.011467003883327</v>
+        <v>1.025458191543697</v>
       </c>
       <c r="M7">
-        <v>1.01453257972651</v>
+        <v>1.03597016418495</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9886548239409196</v>
+        <v>1.020907960875829</v>
       </c>
       <c r="D8">
-        <v>1.008663970156751</v>
+        <v>1.026504553676439</v>
       </c>
       <c r="E8">
-        <v>0.9965202019239564</v>
+        <v>1.021841245048125</v>
       </c>
       <c r="F8">
-        <v>0.9975036758570066</v>
+        <v>1.031910633920976</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03808411954009</v>
+        <v>1.02948843266502</v>
       </c>
       <c r="J8">
-        <v>1.010597323534682</v>
+        <v>1.025981757939122</v>
       </c>
       <c r="K8">
-        <v>1.019727847592915</v>
+        <v>1.029262871781822</v>
       </c>
       <c r="L8">
-        <v>1.007747516524209</v>
+        <v>1.024612923235102</v>
       </c>
       <c r="M8">
-        <v>1.008717567956485</v>
+        <v>1.034653627979122</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9774026081141381</v>
+        <v>1.018629028235771</v>
       </c>
       <c r="D9">
-        <v>1.000562728955667</v>
+        <v>1.024827046526447</v>
       </c>
       <c r="E9">
-        <v>0.9875750567727051</v>
+        <v>1.019907350405284</v>
       </c>
       <c r="F9">
-        <v>0.9845919096990281</v>
+        <v>1.029147469659691</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035342515232698</v>
+        <v>1.029089140896511</v>
       </c>
       <c r="J9">
-        <v>1.003779374210994</v>
+        <v>1.024539275869281</v>
       </c>
       <c r="K9">
-        <v>1.013646682868103</v>
+        <v>1.028026507940745</v>
       </c>
       <c r="L9">
-        <v>1.000872988855716</v>
+        <v>1.023123333902996</v>
       </c>
       <c r="M9">
-        <v>0.997940019043549</v>
+        <v>1.032332564516079</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9695058050006825</v>
+        <v>1.017111215426554</v>
       </c>
       <c r="D10">
-        <v>0.9948941621080168</v>
+        <v>1.023708837850876</v>
       </c>
       <c r="E10">
-        <v>0.9813369793505166</v>
+        <v>1.018621368710491</v>
       </c>
       <c r="F10">
-        <v>0.9755300966771099</v>
+        <v>1.02730744786471</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033362427247408</v>
+        <v>1.028816035772145</v>
       </c>
       <c r="J10">
-        <v>0.9989838060014192</v>
+        <v>1.0235761964207</v>
       </c>
       <c r="K10">
-        <v>1.009356220059508</v>
+        <v>1.027198933864809</v>
       </c>
       <c r="L10">
-        <v>0.9960515794518346</v>
+        <v>1.022130230277164</v>
       </c>
       <c r="M10">
-        <v>0.9903556793477885</v>
+        <v>1.030784394130464</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9659822910952183</v>
+        <v>1.016454338434647</v>
       </c>
       <c r="D11">
-        <v>0.9923699827519801</v>
+        <v>1.023224683492674</v>
       </c>
       <c r="E11">
-        <v>0.9785638680998562</v>
+        <v>1.018065312921482</v>
       </c>
       <c r="F11">
-        <v>0.9714859770713921</v>
+        <v>1.02651118600082</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032466265333897</v>
+        <v>1.028696143035387</v>
       </c>
       <c r="J11">
-        <v>0.9968420687042157</v>
+        <v>1.023158840244995</v>
       </c>
       <c r="K11">
-        <v>1.007437238909753</v>
+        <v>1.026839802498169</v>
       </c>
       <c r="L11">
-        <v>0.9939016862011418</v>
+        <v>1.021700202067715</v>
       </c>
       <c r="M11">
-        <v>0.9869664328275649</v>
+        <v>1.030113826331613</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.964656892626917</v>
+        <v>1.016210397172966</v>
       </c>
       <c r="D12">
-        <v>0.9914213584286165</v>
+        <v>1.023044853510665</v>
       </c>
       <c r="E12">
-        <v>0.9775223656281603</v>
+        <v>1.017858887415823</v>
       </c>
       <c r="F12">
-        <v>0.9699645643596607</v>
+        <v>1.026215490224437</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032127321681329</v>
+        <v>1.028651363952704</v>
       </c>
       <c r="J12">
-        <v>0.9960361902085769</v>
+        <v>1.023003765438975</v>
       </c>
       <c r="K12">
-        <v>1.006714778072699</v>
+        <v>1.02670628753073</v>
       </c>
       <c r="L12">
-        <v>0.9930932545693655</v>
+        <v>1.021540469790147</v>
       </c>
       <c r="M12">
-        <v>0.985690741345312</v>
+        <v>1.029864717084059</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.964941962948307</v>
+        <v>1.016262721042019</v>
       </c>
       <c r="D13">
-        <v>0.9916253503556648</v>
+        <v>1.023083427343721</v>
       </c>
       <c r="E13">
-        <v>0.9777463000331181</v>
+        <v>1.017903161018545</v>
       </c>
       <c r="F13">
-        <v>0.9702918034100851</v>
+        <v>1.026278914756068</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032200305024697</v>
+        <v>1.028660980326694</v>
       </c>
       <c r="J13">
-        <v>0.9962095310529723</v>
+        <v>1.023037031773723</v>
       </c>
       <c r="K13">
-        <v>1.006870193784234</v>
+        <v>1.026734932256741</v>
       </c>
       <c r="L13">
-        <v>0.9932671211613633</v>
+        <v>1.021574732927203</v>
       </c>
       <c r="M13">
-        <v>0.9859651570672084</v>
+        <v>1.029918153251786</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9658730778840791</v>
+        <v>1.016434173110304</v>
       </c>
       <c r="D14">
-        <v>0.9922917976452339</v>
+        <v>1.023209818552466</v>
       </c>
       <c r="E14">
-        <v>0.9784780144825252</v>
+        <v>1.018048247305572</v>
       </c>
       <c r="F14">
-        <v>0.9713606163768486</v>
+        <v>1.026486742244779</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032438373436821</v>
+        <v>1.028692446590673</v>
       </c>
       <c r="J14">
-        <v>0.9967756687956029</v>
+        <v>1.023146022733652</v>
       </c>
       <c r="K14">
-        <v>1.007377720120621</v>
+        <v>1.026828768504885</v>
       </c>
       <c r="L14">
-        <v>0.9938350654058173</v>
+        <v>1.021686998558172</v>
       </c>
       <c r="M14">
-        <v>0.9868613318703953</v>
+        <v>1.030093235508729</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9664445376831621</v>
+        <v>1.016539817295755</v>
       </c>
       <c r="D15">
-        <v>0.9927009383138681</v>
+        <v>1.02328769323592</v>
       </c>
       <c r="E15">
-        <v>0.9789273115878449</v>
+        <v>1.018137655464019</v>
       </c>
       <c r="F15">
-        <v>0.9720165602157353</v>
+        <v>1.026614801050094</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032584243380077</v>
+        <v>1.028711801460543</v>
       </c>
       <c r="J15">
-        <v>0.9971230975957355</v>
+        <v>1.023213169029312</v>
       </c>
       <c r="K15">
-        <v>1.007689128242926</v>
+        <v>1.026886568549292</v>
       </c>
       <c r="L15">
-        <v>0.994183671022612</v>
+        <v>1.021756169047472</v>
       </c>
       <c r="M15">
-        <v>0.9874112415358973</v>
+        <v>1.03020110540815</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.969737374393209</v>
+        <v>1.017154817488713</v>
       </c>
       <c r="D16">
-        <v>0.9950601686293494</v>
+        <v>1.023740970444469</v>
       </c>
       <c r="E16">
-        <v>0.9815194522427749</v>
+        <v>1.018658288859746</v>
       </c>
       <c r="F16">
-        <v>0.9757958590891614</v>
+        <v>1.027360303186138</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033421065280792</v>
+        <v>1.028823958203941</v>
       </c>
       <c r="J16">
-        <v>0.9991245264759633</v>
+        <v>1.023603887922038</v>
       </c>
       <c r="K16">
-        <v>1.009482247854268</v>
+        <v>1.027222751710706</v>
       </c>
       <c r="L16">
-        <v>0.9961929068351458</v>
+        <v>1.022158769713194</v>
       </c>
       <c r="M16">
-        <v>0.9905783152627036</v>
+        <v>1.030828893255118</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9717743453801784</v>
+        <v>1.01754068357344</v>
       </c>
       <c r="D17">
-        <v>0.9965210162672089</v>
+        <v>1.024025309896808</v>
       </c>
       <c r="E17">
-        <v>0.9831257310863979</v>
+        <v>1.018985078548248</v>
       </c>
       <c r="F17">
-        <v>0.9781335081051443</v>
+        <v>1.02782806489166</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033935434900739</v>
+        <v>1.028893873242118</v>
       </c>
       <c r="J17">
-        <v>1.000362137337078</v>
+        <v>1.023848885776898</v>
       </c>
       <c r="K17">
-        <v>1.010590320884265</v>
+        <v>1.027433420391468</v>
       </c>
       <c r="L17">
-        <v>0.9974362408501758</v>
+        <v>1.022411308754402</v>
       </c>
       <c r="M17">
-        <v>0.9925361155577326</v>
+        <v>1.0312226341444</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9729524963465872</v>
+        <v>1.01776578610511</v>
       </c>
       <c r="D18">
-        <v>0.9973664240243131</v>
+        <v>1.024191163835686</v>
       </c>
       <c r="E18">
-        <v>0.9840557461366318</v>
+        <v>1.01917576491919</v>
       </c>
       <c r="F18">
-        <v>0.9794854967160935</v>
+        <v>1.028100948715533</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034231734667532</v>
+        <v>1.028934495592433</v>
       </c>
       <c r="J18">
-        <v>1.001077760391575</v>
+        <v>1.023991756393982</v>
       </c>
       <c r="K18">
-        <v>1.011230771792431</v>
+        <v>1.02755622396241</v>
       </c>
       <c r="L18">
-        <v>0.9981554933128145</v>
+        <v>1.022558609718706</v>
       </c>
       <c r="M18">
-        <v>0.9936679889891689</v>
+        <v>1.031452277298018</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9733525506261321</v>
+        <v>1.017842545908158</v>
       </c>
       <c r="D19">
-        <v>0.9976535697202769</v>
+        <v>1.024247716317362</v>
       </c>
       <c r="E19">
-        <v>0.9843717052279606</v>
+        <v>1.019240796822228</v>
       </c>
       <c r="F19">
-        <v>0.9799445695696329</v>
+        <v>1.028194002929248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034332140801457</v>
+        <v>1.028948319971845</v>
       </c>
       <c r="J19">
-        <v>1.00132072430062</v>
+        <v>1.024040466059724</v>
       </c>
       <c r="K19">
-        <v>1.011448167258266</v>
+        <v>1.027598083914806</v>
       </c>
       <c r="L19">
-        <v>0.9983997435535134</v>
+        <v>1.022608835391934</v>
       </c>
       <c r="M19">
-        <v>0.994052247382114</v>
+        <v>1.031530576429512</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9715568366332322</v>
+        <v>1.017499280341465</v>
       </c>
       <c r="D20">
-        <v>0.9963649760438362</v>
+        <v>1.023994802591184</v>
       </c>
       <c r="E20">
-        <v>0.9829541106992757</v>
+        <v>1.018950009295077</v>
       </c>
       <c r="F20">
-        <v>0.9778839004933184</v>
+        <v>1.02777787370003</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033880634735507</v>
+        <v>1.028886388351433</v>
       </c>
       <c r="J20">
-        <v>1.000230004116749</v>
+        <v>1.023822603182974</v>
       </c>
       <c r="K20">
-        <v>1.010472045537202</v>
+        <v>1.027410825483092</v>
       </c>
       <c r="L20">
-        <v>0.9973034633279806</v>
+        <v>1.02238421378278</v>
       </c>
       <c r="M20">
-        <v>0.9923271113456349</v>
+        <v>1.031180391467363</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9655993543262087</v>
+        <v>1.016383683310295</v>
       </c>
       <c r="D21">
-        <v>0.9920958548303132</v>
+        <v>1.023172599305058</v>
       </c>
       <c r="E21">
-        <v>0.9782628640735903</v>
+        <v>1.018005519736375</v>
       </c>
       <c r="F21">
-        <v>0.9710464188108826</v>
+        <v>1.026425540266078</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032368437822074</v>
+        <v>1.028683187337295</v>
       </c>
       <c r="J21">
-        <v>0.9966092453989165</v>
+        <v>1.023113928993338</v>
       </c>
       <c r="K21">
-        <v>1.007228537077473</v>
+        <v>1.026801139310195</v>
       </c>
       <c r="L21">
-        <v>0.9936680967141983</v>
+        <v>1.021653939141898</v>
       </c>
       <c r="M21">
-        <v>0.9865979019942069</v>
+        <v>1.030041678994027</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9617570236396994</v>
+        <v>1.015682564679571</v>
       </c>
       <c r="D22">
-        <v>0.989347549692184</v>
+        <v>1.022655685531479</v>
       </c>
       <c r="E22">
-        <v>0.9752467228534707</v>
+        <v>1.017412366912827</v>
       </c>
       <c r="F22">
-        <v>0.9666354138537184</v>
+        <v>1.025575686912428</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0313824096356</v>
+        <v>1.028554006067373</v>
       </c>
       <c r="J22">
-        <v>0.9942725952228985</v>
+        <v>1.022668067510753</v>
       </c>
       <c r="K22">
-        <v>1.005133029152261</v>
+        <v>1.026417125361156</v>
       </c>
       <c r="L22">
-        <v>0.9913250297011262</v>
+        <v>1.021194782964416</v>
       </c>
       <c r="M22">
-        <v>0.9828981278676968</v>
+        <v>1.029325548503907</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9638034162732924</v>
+        <v>1.016054212310899</v>
       </c>
       <c r="D23">
-        <v>0.9908107587747926</v>
+        <v>1.022929707399184</v>
       </c>
       <c r="E23">
-        <v>0.9768521697317948</v>
+        <v>1.017726743236917</v>
       </c>
       <c r="F23">
-        <v>0.968984805968893</v>
+        <v>1.02602617141469</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031908549834226</v>
+        <v>1.028622622080673</v>
       </c>
       <c r="J23">
-        <v>0.9955171903347358</v>
+        <v>1.022904454462378</v>
       </c>
       <c r="K23">
-        <v>1.006249391295433</v>
+        <v>1.026620762699266</v>
       </c>
       <c r="L23">
-        <v>0.9925727567292645</v>
+        <v>1.02143819050369</v>
       </c>
       <c r="M23">
-        <v>0.9848690448210087</v>
+        <v>1.02970519974488</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9716551502432853</v>
+        <v>1.017517988576589</v>
       </c>
       <c r="D24">
-        <v>0.9964355045058906</v>
+        <v>1.024008587518508</v>
       </c>
       <c r="E24">
-        <v>0.9830316798427351</v>
+        <v>1.018965855347869</v>
       </c>
       <c r="F24">
-        <v>0.9779967229506454</v>
+        <v>1.027800552795603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033905408059577</v>
+        <v>1.028889770939256</v>
       </c>
       <c r="J24">
-        <v>1.000289728719747</v>
+        <v>1.023834479256196</v>
       </c>
       <c r="K24">
-        <v>1.010525507178828</v>
+        <v>1.027421035384137</v>
       </c>
       <c r="L24">
-        <v>0.9973634781649753</v>
+        <v>1.022396456836588</v>
       </c>
       <c r="M24">
-        <v>0.9924215824262839</v>
+        <v>1.03119947917402</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9803779727247404</v>
+        <v>1.01921792808667</v>
       </c>
       <c r="D25">
-        <v>1.002702338237055</v>
+        <v>1.025260703701645</v>
       </c>
       <c r="E25">
-        <v>0.9899338336170701</v>
+        <v>1.02040673384436</v>
       </c>
       <c r="F25">
-        <v>0.9880059439281987</v>
+        <v>1.029861443796837</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036077306107068</v>
+        <v>1.029193586869212</v>
       </c>
       <c r="J25">
-        <v>1.005584234390928</v>
+        <v>1.024912445355594</v>
       </c>
       <c r="K25">
-        <v>1.015258848230745</v>
+        <v>1.028346727587479</v>
       </c>
       <c r="L25">
-        <v>1.00269044995853</v>
+        <v>1.023508438825193</v>
       </c>
       <c r="M25">
-        <v>1.000793350135647</v>
+        <v>1.032932753981723</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_200/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_200/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020574846168834</v>
+        <v>0.9870534475928875</v>
       </c>
       <c r="D2">
-        <v>1.026259465027548</v>
+        <v>1.007509501796473</v>
       </c>
       <c r="E2">
-        <v>1.02155833181374</v>
+        <v>0.9952430141355155</v>
       </c>
       <c r="F2">
-        <v>1.031506699814445</v>
+        <v>0.9956659336786872</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029430903032845</v>
+        <v>1.037700427994477</v>
       </c>
       <c r="J2">
-        <v>1.025771184298331</v>
+        <v>1.009628405652923</v>
       </c>
       <c r="K2">
-        <v>1.029082633784605</v>
+        <v>1.018865199394401</v>
       </c>
       <c r="L2">
-        <v>1.024395307221931</v>
+        <v>1.006769021582456</v>
       </c>
       <c r="M2">
-        <v>1.034314619661036</v>
+        <v>1.007185980999234</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021560697842816</v>
+        <v>0.9917510457121529</v>
       </c>
       <c r="D3">
-        <v>1.026984683481957</v>
+        <v>1.010897377191446</v>
       </c>
       <c r="E3">
-        <v>1.02239584836003</v>
+        <v>0.998993607801251</v>
       </c>
       <c r="F3">
-        <v>1.03270218394147</v>
+        <v>1.001057260279525</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029600306709796</v>
+        <v>1.038819207003933</v>
       </c>
       <c r="J3">
-        <v>1.026394092810482</v>
+        <v>1.012469139754826</v>
       </c>
       <c r="K3">
-        <v>1.029615551789267</v>
+        <v>1.02139269725109</v>
       </c>
       <c r="L3">
-        <v>1.025039217348184</v>
+        <v>1.009639381819828</v>
       </c>
       <c r="M3">
-        <v>1.035317645065252</v>
+        <v>1.011676631113793</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022198891291063</v>
+        <v>0.9947258126853624</v>
       </c>
       <c r="D4">
-        <v>1.027453956667277</v>
+        <v>1.013044632659777</v>
       </c>
       <c r="E4">
-        <v>1.022938399991488</v>
+        <v>1.001375023561105</v>
       </c>
       <c r="F4">
-        <v>1.03347615548905</v>
+        <v>1.004472019211938</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029708574408544</v>
+        <v>1.039516555722225</v>
       </c>
       <c r="J4">
-        <v>1.026796870787447</v>
+        <v>1.014265401746383</v>
       </c>
       <c r="K4">
-        <v>1.029959727298783</v>
+        <v>1.022988129088015</v>
       </c>
       <c r="L4">
-        <v>1.02545585119069</v>
+        <v>1.01145688154117</v>
       </c>
       <c r="M4">
-        <v>1.035966519531227</v>
+        <v>1.014516768891803</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022467254880221</v>
+        <v>0.9959614574998032</v>
       </c>
       <c r="D5">
-        <v>1.027651240124347</v>
+        <v>1.013936935065405</v>
       </c>
       <c r="E5">
-        <v>1.02316663682961</v>
+        <v>1.002365677054774</v>
       </c>
       <c r="F5">
-        <v>1.033801632493445</v>
+        <v>1.005890626982511</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029753767138342</v>
+        <v>1.0398035073962</v>
       </c>
       <c r="J5">
-        <v>1.026966129773703</v>
+        <v>1.015010856540597</v>
       </c>
       <c r="K5">
-        <v>1.030104260478777</v>
+        <v>1.023649556898412</v>
       </c>
       <c r="L5">
-        <v>1.025630998866819</v>
+        <v>1.012211748301561</v>
       </c>
       <c r="M5">
-        <v>1.036239270636496</v>
+        <v>1.015695643680804</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022512318230925</v>
+        <v>0.9961680677054678</v>
       </c>
       <c r="D6">
-        <v>1.027684364915302</v>
+        <v>1.014086156367649</v>
       </c>
       <c r="E6">
-        <v>1.023204967460065</v>
+        <v>1.002531407793577</v>
       </c>
       <c r="F6">
-        <v>1.033856287353315</v>
+        <v>1.006127842978294</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029761336245072</v>
+        <v>1.03985132763719</v>
       </c>
       <c r="J6">
-        <v>1.026994545047994</v>
+        <v>1.015135462588314</v>
       </c>
       <c r="K6">
-        <v>1.030128518939313</v>
+        <v>1.02376007684083</v>
       </c>
       <c r="L6">
-        <v>1.025660406609689</v>
+        <v>1.012337962704397</v>
       </c>
       <c r="M6">
-        <v>1.036285064658478</v>
+        <v>1.015892711864623</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022202476915362</v>
+        <v>0.9947423814083265</v>
       </c>
       <c r="D7">
-        <v>1.027456592775766</v>
+        <v>1.013056596075134</v>
       </c>
       <c r="E7">
-        <v>1.022941449122333</v>
+        <v>1.001388301450339</v>
       </c>
       <c r="F7">
-        <v>1.033480504137764</v>
+        <v>1.004491040438208</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02970917954565</v>
+        <v>1.039520414208981</v>
       </c>
       <c r="J7">
-        <v>1.026799132705604</v>
+        <v>1.01427540021125</v>
       </c>
       <c r="K7">
-        <v>1.029961659180674</v>
+        <v>1.022997003254398</v>
       </c>
       <c r="L7">
-        <v>1.025458191543697</v>
+        <v>1.011467003883328</v>
       </c>
       <c r="M7">
-        <v>1.03597016418495</v>
+        <v>1.014532579726511</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020907960875829</v>
+        <v>0.9886548239409201</v>
       </c>
       <c r="D8">
-        <v>1.026504553676439</v>
+        <v>1.008663970156752</v>
       </c>
       <c r="E8">
-        <v>1.021841245048125</v>
+        <v>0.9965202019239566</v>
       </c>
       <c r="F8">
-        <v>1.031910633920976</v>
+        <v>0.9975036758570068</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02948843266502</v>
+        <v>1.03808411954009</v>
       </c>
       <c r="J8">
-        <v>1.025981757939122</v>
+        <v>1.010597323534682</v>
       </c>
       <c r="K8">
-        <v>1.029262871781822</v>
+        <v>1.019727847592915</v>
       </c>
       <c r="L8">
-        <v>1.024612923235102</v>
+        <v>1.007747516524209</v>
       </c>
       <c r="M8">
-        <v>1.034653627979122</v>
+        <v>1.008717567956485</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018629028235771</v>
+        <v>0.9774026081141378</v>
       </c>
       <c r="D9">
-        <v>1.024827046526447</v>
+        <v>1.000562728955666</v>
       </c>
       <c r="E9">
-        <v>1.019907350405284</v>
+        <v>0.9875750567727047</v>
       </c>
       <c r="F9">
-        <v>1.029147469659691</v>
+        <v>0.9845919096990282</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029089140896511</v>
+        <v>1.035342515232698</v>
       </c>
       <c r="J9">
-        <v>1.024539275869281</v>
+        <v>1.003779374210994</v>
       </c>
       <c r="K9">
-        <v>1.028026507940745</v>
+        <v>1.013646682868102</v>
       </c>
       <c r="L9">
-        <v>1.023123333902996</v>
+        <v>1.000872988855716</v>
       </c>
       <c r="M9">
-        <v>1.032332564516079</v>
+        <v>0.9979400190435491</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017111215426554</v>
+        <v>0.9695058050006823</v>
       </c>
       <c r="D10">
-        <v>1.023708837850876</v>
+        <v>0.9948941621080165</v>
       </c>
       <c r="E10">
-        <v>1.018621368710491</v>
+        <v>0.9813369793505161</v>
       </c>
       <c r="F10">
-        <v>1.02730744786471</v>
+        <v>0.9755300966771093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028816035772145</v>
+        <v>1.033362427247408</v>
       </c>
       <c r="J10">
-        <v>1.0235761964207</v>
+        <v>0.9989838060014189</v>
       </c>
       <c r="K10">
-        <v>1.027198933864809</v>
+        <v>1.009356220059508</v>
       </c>
       <c r="L10">
-        <v>1.022130230277164</v>
+        <v>0.9960515794518342</v>
       </c>
       <c r="M10">
-        <v>1.030784394130464</v>
+        <v>0.9903556793477878</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016454338434647</v>
+        <v>0.9659822910952185</v>
       </c>
       <c r="D11">
-        <v>1.023224683492674</v>
+        <v>0.9923699827519802</v>
       </c>
       <c r="E11">
-        <v>1.018065312921482</v>
+        <v>0.9785638680998564</v>
       </c>
       <c r="F11">
-        <v>1.02651118600082</v>
+        <v>0.9714859770713926</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028696143035387</v>
+        <v>1.032466265333898</v>
       </c>
       <c r="J11">
-        <v>1.023158840244995</v>
+        <v>0.9968420687042159</v>
       </c>
       <c r="K11">
-        <v>1.026839802498169</v>
+        <v>1.007437238909754</v>
       </c>
       <c r="L11">
-        <v>1.021700202067715</v>
+        <v>0.9939016862011421</v>
       </c>
       <c r="M11">
-        <v>1.030113826331613</v>
+        <v>0.9869664328275655</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016210397172966</v>
+        <v>0.9646568926269159</v>
       </c>
       <c r="D12">
-        <v>1.023044853510665</v>
+        <v>0.9914213584286157</v>
       </c>
       <c r="E12">
-        <v>1.017858887415823</v>
+        <v>0.9775223656281595</v>
       </c>
       <c r="F12">
-        <v>1.026215490224437</v>
+        <v>0.9699645643596599</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028651363952704</v>
+        <v>1.032127321681328</v>
       </c>
       <c r="J12">
-        <v>1.023003765438975</v>
+        <v>0.996036190208576</v>
       </c>
       <c r="K12">
-        <v>1.02670628753073</v>
+        <v>1.006714778072699</v>
       </c>
       <c r="L12">
-        <v>1.021540469790147</v>
+        <v>0.9930932545693646</v>
       </c>
       <c r="M12">
-        <v>1.029864717084059</v>
+        <v>0.9856907413453113</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016262721042019</v>
+        <v>0.9649419629483073</v>
       </c>
       <c r="D13">
-        <v>1.023083427343721</v>
+        <v>0.991625350355665</v>
       </c>
       <c r="E13">
-        <v>1.017903161018545</v>
+        <v>0.9777463000331184</v>
       </c>
       <c r="F13">
-        <v>1.026278914756068</v>
+        <v>0.9702918034100849</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028660980326694</v>
+        <v>1.032200305024697</v>
       </c>
       <c r="J13">
-        <v>1.023037031773723</v>
+        <v>0.9962095310529725</v>
       </c>
       <c r="K13">
-        <v>1.026734932256741</v>
+        <v>1.006870193784234</v>
       </c>
       <c r="L13">
-        <v>1.021574732927203</v>
+        <v>0.9932671211613633</v>
       </c>
       <c r="M13">
-        <v>1.029918153251786</v>
+        <v>0.9859651570672082</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016434173110304</v>
+        <v>0.9658730778840788</v>
       </c>
       <c r="D14">
-        <v>1.023209818552466</v>
+        <v>0.9922917976452338</v>
       </c>
       <c r="E14">
-        <v>1.018048247305572</v>
+        <v>0.9784780144825248</v>
       </c>
       <c r="F14">
-        <v>1.026486742244779</v>
+        <v>0.9713606163768479</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028692446590673</v>
+        <v>1.032438373436821</v>
       </c>
       <c r="J14">
-        <v>1.023146022733652</v>
+        <v>0.9967756687956025</v>
       </c>
       <c r="K14">
-        <v>1.026828768504885</v>
+        <v>1.007377720120621</v>
       </c>
       <c r="L14">
-        <v>1.021686998558172</v>
+        <v>0.9938350654058168</v>
       </c>
       <c r="M14">
-        <v>1.030093235508729</v>
+        <v>0.9868613318703948</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016539817295755</v>
+        <v>0.9664445376831615</v>
       </c>
       <c r="D15">
-        <v>1.02328769323592</v>
+        <v>0.9927009383138679</v>
       </c>
       <c r="E15">
-        <v>1.018137655464019</v>
+        <v>0.9789273115878444</v>
       </c>
       <c r="F15">
-        <v>1.026614801050094</v>
+        <v>0.9720165602157349</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028711801460543</v>
+        <v>1.032584243380077</v>
       </c>
       <c r="J15">
-        <v>1.023213169029312</v>
+        <v>0.9971230975957351</v>
       </c>
       <c r="K15">
-        <v>1.026886568549292</v>
+        <v>1.007689128242926</v>
       </c>
       <c r="L15">
-        <v>1.021756169047472</v>
+        <v>0.9941836710226114</v>
       </c>
       <c r="M15">
-        <v>1.03020110540815</v>
+        <v>0.9874112415358968</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017154817488713</v>
+        <v>0.9697373743932087</v>
       </c>
       <c r="D16">
-        <v>1.023740970444469</v>
+        <v>0.9950601686293493</v>
       </c>
       <c r="E16">
-        <v>1.018658288859746</v>
+        <v>0.9815194522427749</v>
       </c>
       <c r="F16">
-        <v>1.027360303186138</v>
+        <v>0.9757958590891614</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028823958203941</v>
+        <v>1.033421065280792</v>
       </c>
       <c r="J16">
-        <v>1.023603887922038</v>
+        <v>0.9991245264759632</v>
       </c>
       <c r="K16">
-        <v>1.027222751710706</v>
+        <v>1.009482247854268</v>
       </c>
       <c r="L16">
-        <v>1.022158769713194</v>
+        <v>0.9961929068351456</v>
       </c>
       <c r="M16">
-        <v>1.030828893255118</v>
+        <v>0.9905783152627037</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01754068357344</v>
+        <v>0.9717743453801783</v>
       </c>
       <c r="D17">
-        <v>1.024025309896808</v>
+        <v>0.9965210162672087</v>
       </c>
       <c r="E17">
-        <v>1.018985078548248</v>
+        <v>0.9831257310863973</v>
       </c>
       <c r="F17">
-        <v>1.02782806489166</v>
+        <v>0.9781335081051441</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028893873242118</v>
+        <v>1.033935434900738</v>
       </c>
       <c r="J17">
-        <v>1.023848885776898</v>
+        <v>1.000362137337078</v>
       </c>
       <c r="K17">
-        <v>1.027433420391468</v>
+        <v>1.010590320884265</v>
       </c>
       <c r="L17">
-        <v>1.022411308754402</v>
+        <v>0.9974362408501753</v>
       </c>
       <c r="M17">
-        <v>1.0312226341444</v>
+        <v>0.9925361155577324</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01776578610511</v>
+        <v>0.9729524963465868</v>
       </c>
       <c r="D18">
-        <v>1.024191163835686</v>
+        <v>0.9973664240243126</v>
       </c>
       <c r="E18">
-        <v>1.01917576491919</v>
+        <v>0.9840557461366312</v>
       </c>
       <c r="F18">
-        <v>1.028100948715533</v>
+        <v>0.9794854967160923</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028934495592433</v>
+        <v>1.034231734667531</v>
       </c>
       <c r="J18">
-        <v>1.023991756393982</v>
+        <v>1.001077760391574</v>
       </c>
       <c r="K18">
-        <v>1.02755622396241</v>
+        <v>1.01123077179243</v>
       </c>
       <c r="L18">
-        <v>1.022558609718706</v>
+        <v>0.9981554933128137</v>
       </c>
       <c r="M18">
-        <v>1.031452277298018</v>
+        <v>0.9936679889891679</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017842545908158</v>
+        <v>0.9733525506261317</v>
       </c>
       <c r="D19">
-        <v>1.024247716317362</v>
+        <v>0.9976535697202762</v>
       </c>
       <c r="E19">
-        <v>1.019240796822228</v>
+        <v>0.9843717052279599</v>
       </c>
       <c r="F19">
-        <v>1.028194002929248</v>
+        <v>0.9799445695696324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028948319971845</v>
+        <v>1.034332140801457</v>
       </c>
       <c r="J19">
-        <v>1.024040466059724</v>
+        <v>1.001320724300619</v>
       </c>
       <c r="K19">
-        <v>1.027598083914806</v>
+        <v>1.011448167258266</v>
       </c>
       <c r="L19">
-        <v>1.022608835391934</v>
+        <v>0.9983997435535127</v>
       </c>
       <c r="M19">
-        <v>1.031530576429512</v>
+        <v>0.9940522473821134</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017499280341465</v>
+        <v>0.971556836633232</v>
       </c>
       <c r="D20">
-        <v>1.023994802591184</v>
+        <v>0.996364976043836</v>
       </c>
       <c r="E20">
-        <v>1.018950009295077</v>
+        <v>0.9829541106992754</v>
       </c>
       <c r="F20">
-        <v>1.02777787370003</v>
+        <v>0.9778839004933182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028886388351433</v>
+        <v>1.033880634735507</v>
       </c>
       <c r="J20">
-        <v>1.023822603182974</v>
+        <v>1.000230004116748</v>
       </c>
       <c r="K20">
-        <v>1.027410825483092</v>
+        <v>1.010472045537202</v>
       </c>
       <c r="L20">
-        <v>1.02238421378278</v>
+        <v>0.9973034633279804</v>
       </c>
       <c r="M20">
-        <v>1.031180391467363</v>
+        <v>0.9923271113456346</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016383683310295</v>
+        <v>0.9655993543262086</v>
       </c>
       <c r="D21">
-        <v>1.023172599305058</v>
+        <v>0.992095854830313</v>
       </c>
       <c r="E21">
-        <v>1.018005519736375</v>
+        <v>0.9782628640735902</v>
       </c>
       <c r="F21">
-        <v>1.026425540266078</v>
+        <v>0.9710464188108825</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028683187337295</v>
+        <v>1.032368437822074</v>
       </c>
       <c r="J21">
-        <v>1.023113928993338</v>
+        <v>0.9966092453989163</v>
       </c>
       <c r="K21">
-        <v>1.026801139310195</v>
+        <v>1.007228537077473</v>
       </c>
       <c r="L21">
-        <v>1.021653939141898</v>
+        <v>0.993668096714198</v>
       </c>
       <c r="M21">
-        <v>1.030041678994027</v>
+        <v>0.9865979019942069</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015682564679571</v>
+        <v>0.9617570236397004</v>
       </c>
       <c r="D22">
-        <v>1.022655685531479</v>
+        <v>0.9893475496921847</v>
       </c>
       <c r="E22">
-        <v>1.017412366912827</v>
+        <v>0.9752467228534717</v>
       </c>
       <c r="F22">
-        <v>1.025575686912428</v>
+        <v>0.9666354138537192</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028554006067373</v>
+        <v>1.0313824096356</v>
       </c>
       <c r="J22">
-        <v>1.022668067510753</v>
+        <v>0.9942725952228995</v>
       </c>
       <c r="K22">
-        <v>1.026417125361156</v>
+        <v>1.005133029152262</v>
       </c>
       <c r="L22">
-        <v>1.021194782964416</v>
+        <v>0.9913250297011271</v>
       </c>
       <c r="M22">
-        <v>1.029325548503907</v>
+        <v>0.9828981278676976</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016054212310899</v>
+        <v>0.9638034162732928</v>
       </c>
       <c r="D23">
-        <v>1.022929707399184</v>
+        <v>0.9908107587747931</v>
       </c>
       <c r="E23">
-        <v>1.017726743236917</v>
+        <v>0.9768521697317953</v>
       </c>
       <c r="F23">
-        <v>1.02602617141469</v>
+        <v>0.9689848059688936</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028622622080673</v>
+        <v>1.031908549834226</v>
       </c>
       <c r="J23">
-        <v>1.022904454462378</v>
+        <v>0.9955171903347363</v>
       </c>
       <c r="K23">
-        <v>1.026620762699266</v>
+        <v>1.006249391295433</v>
       </c>
       <c r="L23">
-        <v>1.02143819050369</v>
+        <v>0.9925727567292651</v>
       </c>
       <c r="M23">
-        <v>1.02970519974488</v>
+        <v>0.9848690448210091</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017517988576589</v>
+        <v>0.9716551502432853</v>
       </c>
       <c r="D24">
-        <v>1.024008587518508</v>
+        <v>0.9964355045058905</v>
       </c>
       <c r="E24">
-        <v>1.018965855347869</v>
+        <v>0.9830316798427349</v>
       </c>
       <c r="F24">
-        <v>1.027800552795603</v>
+        <v>0.9779967229506449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028889770939256</v>
+        <v>1.033905408059577</v>
       </c>
       <c r="J24">
-        <v>1.023834479256196</v>
+        <v>1.000289728719747</v>
       </c>
       <c r="K24">
-        <v>1.027421035384137</v>
+        <v>1.010525507178828</v>
       </c>
       <c r="L24">
-        <v>1.022396456836588</v>
+        <v>0.9973634781649751</v>
       </c>
       <c r="M24">
-        <v>1.03119947917402</v>
+        <v>0.9924215824262833</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01921792808667</v>
+        <v>0.9803779727247413</v>
       </c>
       <c r="D25">
-        <v>1.025260703701645</v>
+        <v>1.002702338237055</v>
       </c>
       <c r="E25">
-        <v>1.02040673384436</v>
+        <v>0.9899338336170704</v>
       </c>
       <c r="F25">
-        <v>1.029861443796837</v>
+        <v>0.9880059439281993</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029193586869212</v>
+        <v>1.036077306107069</v>
       </c>
       <c r="J25">
-        <v>1.024912445355594</v>
+        <v>1.005584234390929</v>
       </c>
       <c r="K25">
-        <v>1.028346727587479</v>
+        <v>1.015258848230746</v>
       </c>
       <c r="L25">
-        <v>1.023508438825193</v>
+        <v>1.00269044995853</v>
       </c>
       <c r="M25">
-        <v>1.032932753981723</v>
+        <v>1.000793350135647</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
